--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F09E90E-89FC-4725-9F14-7E4B33F1D7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D552E7-742E-410B-9567-ABBD2315E5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2185,6 +2185,9 @@
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2226,9 +2229,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3631,7 +3631,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="271" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4232,19 +4232,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16762541355539104</v>
+        <v>0.17390277194179479</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.48375119348200096</v>
+        <v>0.50186705996625336</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.22500055510790745</v>
+        <v>0.23342653951918765</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11250027755395373</v>
+        <v>0.11671326975959383</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4664,11 +4664,11 @@
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="271">
+      <c r="C89" s="272">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="272"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4682,10 +4682,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
+      <c r="C90" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="272"/>
+      <c r="D90" s="273"/>
       <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
@@ -4958,17 +4958,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="277" t="str">
+      <c r="C3" s="278" t="str">
         <f>Inputs!C4</f>
         <v>1171.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="279"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.52</v>
+        <v>9.17</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4978,40 +4978,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="279" t="str">
+      <c r="C4" s="280" t="str">
         <f>Inputs!C5</f>
         <v>兗礦能源</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="281"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="284">
         <f>Inputs!C10</f>
         <v>10039860402</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="284"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="281">
+      <c r="C5" s="282">
         <f>Inputs!C6</f>
         <v>45638</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="283"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="275">
+      <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>95579.471027039996</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>92065.51988634</v>
+      </c>
+      <c r="H5" s="276"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5034,11 +5034,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="277" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="277"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5058,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0710026423136394</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.319473692926531</v>
+        <v>12.838681414832417</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6250138776976863E-2</v>
+        <v>5.8356634879796913E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5292,10 +5292,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="273" t="s">
+      <c r="G28" s="274" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="273"/>
+      <c r="H28" s="274"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5303,22 +5303,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3625043331853739</v>
+        <v>4.3945898087509629</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.248553112561263</v>
+        <v>13.413402878745062</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.3989481245993121</v>
-      </c>
-      <c r="G29" s="274">
+        <v>6.4674710227893994</v>
+      </c>
+      <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.520480967444577</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>11.663828590213098</v>
+      </c>
+      <c r="H29" s="275"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11590,11 +11590,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="285">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="283"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11605,11 +11605,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="284">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="283"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11621,11 +11621,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="284">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="283"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11839,19 +11839,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="271">
+      <c r="C72" s="272">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
+      <c r="D72" s="272"/>
+      <c r="E72" s="286" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
+      <c r="F72" s="286"/>
+      <c r="H72" s="286" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="285"/>
+      <c r="I72" s="286"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11861,18 +11861,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
+      <c r="C73" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
+      <c r="D73" s="273"/>
+      <c r="E73" s="287" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
+      <c r="F73" s="273"/>
+      <c r="H73" s="287" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="272"/>
+      <c r="I73" s="273"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12239,17 +12239,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15435964795786128</v>
+        <v>0.16014022030711558</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4791477859722734E-2</v>
+        <v>4.6468861695612491E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5078041599426132E-2</v>
+        <v>7.7889618699059596E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12290,17 +12290,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16762541355539104</v>
+        <v>0.17390277194179479</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3750083266186115E-2</v>
+        <v>3.5013980927878149E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6250138776976863E-2</v>
+        <v>5.8356634879796913E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12331,15 +12331,15 @@
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="285" t="s">
+      <c r="E92" s="286" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="285"/>
+      <c r="F92" s="286"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
+      <c r="H92" s="286" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="285"/>
+      <c r="I92" s="286"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12360,14 +12360,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.774554446052294</v>
+        <v>8.8390897979454977</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.966586159652643</v>
+        <v>17.177698855325364</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.2695188154063981</v>
+        <v>6.3035693212186006</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.636947287382617</v>
+        <v>11.745307334432153</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12438,21 +12438,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>84690157.272932336</v>
+        <v>85743944.241659909</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3625043331853739</v>
+        <v>4.3945898087509629</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.4353919160132502</v>
+        <v>8.540352236827836</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.520480967444577</v>
+        <v>11.663828590213098</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12501,27 +12501,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>84690157.272932336</v>
+        <v>85743944.241659909</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3625043331853739</v>
+        <v>4.3945898087509629</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3625043331853739</v>
+        <v>4.3945898087509629</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.3989481245993121</v>
+        <v>6.4674710227893994</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.4353919160132502</v>
+        <v>8.540352236827836</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.520480967444577</v>
+        <v>11.663828590213098</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12562,27 +12562,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>58086811.729333423</v>
+        <v>58627700.116683327</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.1170588965349548</v>
+        <v>3.1339880158499209</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1170588965349548</v>
+        <v>3.1339880158499209</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4513391788570669</v>
+        <v>4.4867407857289798</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.7856194611791798</v>
+        <v>5.8394935556080378</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.9016030969303674</v>
+        <v>7.9751806480015581</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12623,27 +12623,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37546885.34716218</v>
+        <v>37792935.192292854</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.7397816148601644</v>
+        <v>3.7642889123004419</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.7397816148601644</v>
+        <v>3.7642889123004419</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.4251436517281899</v>
+        <v>5.4771059042591901</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.1105056885962146</v>
+        <v>7.1899228962179365</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.7110420321874713</v>
+        <v>9.8195046191073274</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D552E7-742E-410B-9567-ABBD2315E5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CA11F8-7FA5-4D7C-B2FF-9F7CC9874804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4232,19 +4232,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.17390277194179479</v>
+        <v>0.17445727058955995</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.50186705996625336</v>
+        <v>0.50346729096315967</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23342653951918765</v>
+        <v>0.23417083300612077</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11671326975959383</v>
+        <v>0.11708541650306038</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.17</v>
+        <v>9.14</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>92065.51988634</v>
+        <v>91764.324074279997</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
@@ -5058,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5104,10 +5104,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5154,7 +5154,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.838681414832417</v>
+        <v>12.797874680555569</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8356634879796913E-2</v>
+        <v>5.8542708251530191E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5303,20 +5303,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.3945898087509629</v>
+        <v>4.015639341267403</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>13.413402878745062</v>
+        <v>11.94106515395462</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.4674710227893994</v>
+        <v>5.9115065725712572</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.663828590213098</v>
+        <v>10.383534916482279</v>
       </c>
       <c r="H29" s="275"/>
     </row>
@@ -12239,17 +12239,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16014022030711558</v>
+        <v>0.16065083629455273</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6468861695612491E-2</v>
+        <v>4.6617030242241682E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7889618699059596E-2</v>
+        <v>7.8137974074660096E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12290,17 +12290,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17390277194179479</v>
+        <v>0.17445727058955995</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5013980927878149E-2</v>
+        <v>3.5125624950918109E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8356634879796913E-2</v>
+        <v>5.8542708251530191E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12360,14 +12360,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8390897979454977</v>
+        <v>8.076885051465954</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.177698855325364</v>
+        <v>15.703417415923418</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3035693212186006</v>
+        <v>5.7590343948518745</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.745307334432153</v>
+        <v>10.734332584133174</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12438,21 +12438,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>85743944.241659909</v>
+        <v>78384943.097137854</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3945898087509629</v>
+        <v>4.015639341267403</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.540352236827836</v>
+        <v>7.8073738038751124</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.663828590213098</v>
+        <v>10.383534916482279</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12501,27 +12501,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>85743944.241659909</v>
+        <v>78384943.097137854</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.3945898087509629</v>
+        <v>4.015639341267403</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3945898087509629</v>
+        <v>4.015639341267403</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.4674710227893994</v>
+        <v>5.9115065725712572</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.540352236827836</v>
+        <v>7.8073738038751115</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.663828590213098</v>
+        <v>10.383534916482279</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12562,27 +12562,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>58627700.116683327</v>
+        <v>53581333.700003013</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.1339880158499209</v>
+        <v>2.8632579189030176</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1339880158499209</v>
+        <v>2.8632579189030176</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4867407857289798</v>
+        <v>4.100059174344203</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.8394935556080378</v>
+        <v>5.3368604297853874</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.9751806480015581</v>
+        <v>7.0978382756009788</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12623,27 +12623,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37792935.192292854</v>
+        <v>34531584.105905645</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.7642889123004419</v>
+        <v>3.4394486300852103</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.7642889123004419</v>
+        <v>3.4394486300852103</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.4771059042591901</v>
+        <v>5.0057828734577301</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.1899228962179365</v>
+        <v>6.572117116830249</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8195046191073274</v>
+        <v>8.7406865960416287</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CA11F8-7FA5-4D7C-B2FF-9F7CC9874804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE17878-226A-4D1A-8A01-3C41EC5E4E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4232,19 +4243,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.17445727058955995</v>
+        <v>0.17372928879903213</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.50346729096315967</v>
+        <v>0.50136640391666987</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23417083300612077</v>
+        <v>0.23319367624031159</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11708541650306038</v>
+        <v>0.1165968381201558</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4968,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.14</v>
+        <v>9.17</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5009,7 +5020,7 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>91764.324074279997</v>
+        <v>92065.51988634</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
@@ -5058,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5241,7 +5252,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.797874680555569</v>
+        <v>12.851501905931936</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5273,7 +5284,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8542708251530191E-2</v>
+        <v>5.8298419060077898E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5303,20 +5314,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.015639341267403</v>
+        <v>4.0082811742516498</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.94106515395462</v>
+        <v>11.912238139531354</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9115065725712572</v>
+        <v>5.8984035694066996</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.383534916482279</v>
+        <v>10.358467947418569</v>
       </c>
       <c r="H29" s="275"/>
     </row>
@@ -12239,17 +12250,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16065083629455273</v>
+        <v>0.1599804665068088</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6617030242241682E-2</v>
+        <v>4.6422504963758576E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8137974074660096E-2</v>
+        <v>7.7811917028812377E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12290,17 +12301,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17445727058955995</v>
+        <v>0.17372928879903213</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5125624950918109E-2</v>
+        <v>3.4979051436046737E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8542708251530191E-2</v>
+        <v>5.8298419060077898E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12360,14 +12371,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.076885051465954</v>
+        <v>8.0620851493519936</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.703417415923418</v>
+        <v>15.665507678851641</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12388,14 +12399,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7590343948518745</v>
+        <v>5.7497541942672283</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.734332584133174</v>
+        <v>10.712256609231263</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12438,21 +12449,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78384943.097137854</v>
+        <v>78195713.421552375</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.015639341267403</v>
+        <v>4.0082811742516498</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.8073738038751124</v>
+        <v>7.7885259645617504</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.383534916482279</v>
+        <v>10.358467947418569</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12501,27 +12512,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>78384943.097137854</v>
+        <v>78195713.421552375</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.015639341267403</v>
+        <v>4.0082811742516498</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.015639341267403</v>
+        <v>4.0082811742516498</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.9115065725712572</v>
+        <v>5.8984035694066996</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.8073738038751115</v>
+        <v>7.7885259645617495</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.383534916482279</v>
+        <v>10.358467947418569</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12562,27 +12573,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53581333.700003013</v>
+        <v>53471139.594435558</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8632579189030176</v>
+        <v>2.8586440190734299</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8632579189030176</v>
+        <v>2.8586440190734299</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.100059174344203</v>
+        <v>4.0922643938642791</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3368604297853874</v>
+        <v>5.3258847686551283</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.0978382756009788</v>
+        <v>7.0832410290184011</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12623,27 +12634,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34531584.105905645</v>
+        <v>34471485.165980332</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4394486300852103</v>
+        <v>3.4334625966625398</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.4394486300852103</v>
+        <v>3.4334625966625398</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.0057828734577301</v>
+        <v>4.9953339816354898</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.572117116830249</v>
+        <v>6.5572053666084393</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.7406865960416287</v>
+        <v>8.7208544882184853</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE17878-226A-4D1A-8A01-3C41EC5E4E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD728DB1-D061-4D4B-94F4-F0F58C8981A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -967,27 +946,59 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1171.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>兗礦能源</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>C0017</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>CNY</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>兗礦能源</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier 3</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1020,7 @@
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
     <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1202,13 +1213,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1554,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2196,7 +2200,14 @@
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3613,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3627,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="271" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="191" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45638</v>
@@ -3664,7 +3675,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>270</v>
@@ -3673,15 +3684,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>10039860402</v>
@@ -3689,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3713,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3721,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3738,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3869,7 +3880,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>74519273</v>
@@ -3897,7 +3908,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>15079069</v>
@@ -3925,7 +3936,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3941,7 +3952,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>3563014</v>
@@ -3969,7 +3980,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <f>4734427+444743</f>
@@ -4003,7 +4014,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -4019,7 +4030,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -4035,7 +4046,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4067,7 +4078,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4083,7 +4094,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4115,7 +4126,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4163,7 +4174,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4179,7 +4190,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4195,7 +4206,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4211,7 +4222,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>1.3+0.19</f>
@@ -4239,23 +4250,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.17372928879903213</v>
+        <v>0.17488440484124754</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.50136640391666987</v>
+        <v>0.50469996028011033</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23319367624031159</v>
+        <v>0.23474416757214434</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1165968381201558</v>
+        <v>0.11737208378607217</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4288,21 +4299,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4312,7 +4323,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4322,7 +4333,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4333,7 +4344,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4343,7 +4354,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4353,7 +4364,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4364,7 +4375,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4374,7 +4385,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4385,7 +4396,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4393,24 +4404,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4421,7 +4432,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4432,7 +4443,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4443,7 +4454,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4454,7 +4465,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4465,7 +4476,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4476,7 +4487,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4486,31 +4497,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4518,12 +4529,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4534,7 +4545,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4545,7 +4556,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4555,7 +4566,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4566,7 +4577,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4576,25 +4587,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4606,55 +4617,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4662,10 +4673,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4673,18 +4684,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="272">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="272"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4693,20 +4704,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="273"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4724,7 +4735,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4745,7 +4756,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4766,7 +4777,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4784,7 +4795,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4805,7 +4816,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4823,7 +4834,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4841,7 +4852,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4925,8 +4936,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4967,62 +4978,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="278" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1171.HK</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.17</v>
+        <v>9.11</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="280" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>兗礦能源</v>
       </c>
-      <c r="D4" s="281"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="284">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>10039860402</v>
       </c>
-      <c r="H4" s="284"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="282">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45638</v>
       </c>
-      <c r="D5" s="283"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="276">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>92065.51988634</v>
-      </c>
-      <c r="H5" s="276"/>
+        <v>91463.128262219994</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5045,16 +5056,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="277" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="277"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5069,7 +5080,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5079,40 +5090,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5125,29 +5136,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5157,12 +5168,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5172,29 +5183,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.69</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5202,7 +5213,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5213,26 +5224,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>5.8307109926881803E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5241,30 +5252,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.008431596699165E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.851501905931936</v>
+        <v>12.766617401612759</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5273,18 +5284,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>9.4288424288003866E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8298419060077898E-2</v>
+        <v>5.8686041893036084E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5294,62 +5305,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="274" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="274"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0082811742516498</v>
+        <v>4.0144465608179267</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.912238139531354</v>
+        <v>11.941600588088422</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8984035694066996</v>
-      </c>
-      <c r="G29" s="275">
+        <v>5.9110852226120256</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.358467947418569</v>
-      </c>
-      <c r="H29" s="275"/>
+        <v>10.384000511381236</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5359,25 +5370,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5387,7 +5398,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5397,14 +5408,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5414,7 +5425,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5429,14 +5440,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6389,12 +6400,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="H43" sqref="H43"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6421,16 +6432,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6448,7 +6459,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6481,7 +6492,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6492,7 +6503,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6644,7 +6655,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6695,7 +6706,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6746,7 +6757,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6797,7 +6808,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6848,7 +6859,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6899,7 +6910,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6950,7 +6961,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7001,7 +7012,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7052,7 +7063,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7103,7 +7114,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7154,7 +7165,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7205,7 +7216,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7256,7 +7267,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7307,7 +7318,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7358,7 +7369,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7409,7 +7420,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7460,7 +7471,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7511,7 +7522,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7562,7 +7573,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7715,7 +7726,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7766,7 +7777,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7868,7 +7879,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8072,7 +8083,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8123,7 +8134,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8174,7 +8185,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8225,7 +8236,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8276,7 +8287,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8327,7 +8338,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8345,7 +8356,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8396,7 +8407,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8447,7 +8458,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8498,7 +8509,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8549,7 +8560,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8600,7 +8611,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8651,7 +8662,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8702,7 +8713,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8719,50 +8730,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8771,10 +8782,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8822,167 +8833,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="e">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153" t="e">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="G53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8990,112 +9002,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.19398624320084429</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.16389072249905537</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.31296318737139767</v>
-      </c>
-      <c r="F56" s="153">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>1.0268662308051022</v>
-      </c>
-      <c r="G56" s="153">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.44019711131949024</v>
-      </c>
-      <c r="H56" s="153">
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.56611293494355286</v>
-      </c>
-      <c r="I56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.19398624320084429</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.16389072249905537</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.31296318737139767</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.0268662308051022</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.44019711131949024</v>
+      </c>
+      <c r="H57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.56611293494355286</v>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9658,7 +9860,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10341,6 +10545,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10380,8 +10585,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10399,7 +10604,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10414,7 +10619,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10428,7 +10633,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10438,7 +10643,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10456,10 +10661,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10468,12 +10673,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10483,7 +10689,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10493,8 +10699,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10506,7 +10713,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10524,7 +10731,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10543,32 +10750,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10585,7 +10792,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10596,7 +10803,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10613,7 +10820,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10624,7 +10831,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10641,7 +10848,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10652,7 +10859,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10669,7 +10876,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10680,7 +10887,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10697,7 +10904,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10707,7 +10914,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10729,7 +10936,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10751,7 +10958,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10772,7 +10979,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10797,7 +11004,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10824,7 +11031,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10845,7 +11052,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10862,7 +11069,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10874,13 +11081,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10902,7 +11109,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10922,7 +11129,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10931,7 +11138,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10951,7 +11158,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10964,7 +11171,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10984,7 +11191,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -11030,7 +11237,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11039,7 +11246,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11055,7 +11262,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11065,7 +11272,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11082,7 +11289,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11092,7 +11299,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11109,7 +11316,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11119,7 +11326,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11139,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11149,7 +11356,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11166,7 +11373,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11176,7 +11383,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11202,7 +11409,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11229,7 +11436,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11256,7 +11463,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11277,7 +11484,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11298,7 +11505,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11319,7 +11526,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11340,7 +11547,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11357,7 +11564,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11375,7 +11582,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11394,7 +11601,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11413,7 +11620,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11430,7 +11637,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11443,7 +11650,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11460,7 +11667,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11473,7 +11680,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11490,7 +11697,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11517,7 +11724,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11533,14 +11740,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11557,7 +11764,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11587,7 +11794,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11598,14 +11805,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="285">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="283"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11613,30 +11820,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="284">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="283"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="284">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="283"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11653,11 +11860,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11667,7 +11874,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11688,7 +11895,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11709,7 +11916,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11730,7 +11937,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11745,7 +11952,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11776,11 +11983,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11790,7 +11997,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11811,7 +12018,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11826,7 +12033,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11848,21 +12055,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="272">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="272"/>
-      <c r="E72" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="286"/>
-      <c r="H72" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="286"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11872,23 +12079,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="273"/>
-      <c r="E73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="273"/>
-      <c r="H73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="273"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11909,7 +12116,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11939,7 +12146,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11960,7 +12167,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11990,7 +12197,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12020,7 +12227,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12051,7 +12258,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12078,12 +12285,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12113,7 +12320,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12143,7 +12350,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12173,7 +12380,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12194,7 +12401,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12225,7 +12432,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12246,28 +12453,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1599804665068088</v>
+        <v>0.16104416742091829</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6422504963758576E-2</v>
+        <v>4.6731165527409954E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7811917028812377E-2</v>
+        <v>7.8329283986663042E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12297,21 +12504,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17372928879903213</v>
+        <v>0.17488440484124754</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.4979051436046737E-2</v>
+        <v>3.5211625135821649E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8298419060077898E-2</v>
+        <v>5.8686041893036084E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12328,29 +12535,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="286"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="286"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12367,24 +12574,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0620851493519936</v>
+        <v>8.074485943935791</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.665507678851641</v>
+        <v>15.704121552915673</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12395,18 +12602,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7497541942672283</v>
+        <v>5.7565763065299391</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.712256609231263</v>
+        <v>10.732558139220441</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12425,51 +12632,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78195713.421552375</v>
+        <v>78388457.856798679</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0082811742516498</v>
+        <v>4.0144465608179267</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7885259645617504</v>
+        <v>7.8077238844061245</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.358467947418569</v>
+        <v>10.384000511381236</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12487,7 +12694,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12508,31 +12715,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>78195713.421552375</v>
+        <v>78388457.856798679</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0082811742516498</v>
+        <v>4.0144465608179267</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0082811742516498</v>
+        <v>4.0144465608179267</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.8984035694066996</v>
+        <v>5.9110852226120256</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.7885259645617495</v>
+        <v>7.8077238844061245</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.358467947418569</v>
+        <v>10.384000511381236</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12542,58 +12749,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53471139.594435558</v>
+        <v>53572476.4073622</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8586440190734299</v>
+        <v>2.8620358145760427</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8586440190734299</v>
+        <v>2.8620358145760427</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.0922643938642791</v>
+        <v>4.0990070158163752</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3258847686551283</v>
+        <v>5.3359782170567076</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.0832410290184011</v>
+        <v>7.0966649634345425</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12603,58 +12810,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34471485.165980332</v>
+        <v>34519461.552884407</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4334625966625398</v>
+        <v>3.4382411876969847</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.4334625966625398</v>
+        <v>3.4382411876969847</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.9953339816354898</v>
+        <v>5.0050461192142004</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.5572053666084393</v>
+        <v>6.5718510507314161</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.7208544882184853</v>
+        <v>8.7403327374078899</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12663,7 +12870,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12672,6 +12879,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD728DB1-D061-4D4B-94F4-F0F58C8981A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1701EB18-9BC7-4788-8367-AED6DEEA7E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12732014981812276</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8307109926881803E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.008431596699165E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4288424288003866E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45638</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>10039860402</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3952,7 +3115,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>3563014</v>
@@ -4094,7 +3257,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4190,7 +3353,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4222,7 +3385,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>1.3+0.19</f>
@@ -4250,23 +3413,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.17488440484124754</v>
+        <v>0.1766128495985371</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.50469996028011033</v>
+        <v>0.50968808944544264</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23474416757214434</v>
+        <v>0.23706422764904309</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11737208378607217</v>
+        <v>0.11853211382452154</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4299,13 +3462,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4364,7 +3527,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4375,7 +3538,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4476,7 +3639,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4487,7 +3650,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4647,7 +3810,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4665,7 +3828,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4673,10 +3836,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4686,16 +3849,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4704,10 +3867,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4756,7 +3919,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4777,7 +3940,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4795,7 +3958,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4834,7 +3997,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4852,7 +4015,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4936,8 +4099,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4978,62 +4141,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1171.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.11</v>
+        <v>9.02</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>兗礦能源</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>10039860402</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45638</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>91463.128262219994</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>90559.54082604</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5056,16 +4219,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5080,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5090,40 +4253,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5136,29 +4299,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5168,12 +4331,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5181,9 +4344,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5191,59 +4354,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.69</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.12732014981812276</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>5.8307109926881803E-2</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.18516910688097288</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5252,30 +4415,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.008431596699165E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.766617401612759</v>
+        <v>12.641675230268492</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5284,18 +4447,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>9.4288424288003866E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8686041893036084E-2</v>
+        <v>5.9266056912260771E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5305,62 +4468,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0144465608179267</v>
+        <v>4.0229347394248274</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.941600588088422</v>
+        <v>11.983406850444963</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9110852226120256</v>
-      </c>
-      <c r="G29" s="278">
+        <v>5.9289963137010036</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.384000511381236</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>10.420353782995621</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5370,7 +4533,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5381,14 +4544,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5398,7 +4561,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5408,14 +4571,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5425,7 +4588,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5440,14 +4603,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6391,7 +5554,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6405,7 +5567,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6432,16 +5594,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6459,7 +5621,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6492,7 +5654,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6859,7 +6021,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6910,7 +6072,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6961,7 +6123,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7012,7 +6174,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7114,7 +6276,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7267,7 +6429,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7777,7 +6939,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8287,7 +7449,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8338,7 +7500,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8407,7 +7569,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8611,7 +7773,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8713,7 +7875,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8731,14 +7893,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8782,7 +7944,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8833,7 +7995,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8884,7 +8046,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8935,7 +8097,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8952,7 +8114,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9152,7 +8314,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9202,7 +8364,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9252,7 +8414,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10756,7 +9918,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10914,7 +10076,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11326,7 +10488,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11794,7 +10956,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11808,11 +10970,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11823,11 +10985,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11839,11 +11001,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11860,7 +11022,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11937,7 +11099,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11983,7 +11145,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12018,7 +11180,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12057,19 +11219,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12079,18 +11241,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12167,7 +11329,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12197,7 +11359,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12227,7 +11389,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12290,7 +11452,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12320,7 +11482,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12401,7 +11563,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12432,7 +11594,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12453,28 +11615,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16104416742091829</v>
+        <v>0.16263582419056238</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6731165527409954E-2</v>
+        <v>4.7193026252677045E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8329283986663042E-2</v>
+        <v>7.9103440152113555E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12504,21 +11666,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17488440484124754</v>
+        <v>0.1766128495985371</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5211625135821649E-2</v>
+        <v>3.555963414735646E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8686041893036084E-2</v>
+        <v>5.9266056912260771E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12540,24 +11702,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12574,24 +11736,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.074485943935791</v>
+        <v>8.091558702985564</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.704121552915673</v>
+        <v>15.759099997461465</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12602,18 +11764,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7565763065299391</v>
+        <v>5.7657194436699228</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.732558139220441</v>
+        <v>10.76098357718983</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12632,14 +11794,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12656,21 +11818,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78388457.856798679</v>
+        <v>78662887.436879843</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0144465608179267</v>
+        <v>4.0229347394248274</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.8077238844061245</v>
+        <v>7.8350578879771797</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.384000511381236</v>
+        <v>10.420353782995621</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12719,27 +11881,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>78388457.856798679</v>
+        <v>78662887.436879843</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0144465608179267</v>
+        <v>4.0229347394248274</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0144465608179267</v>
+        <v>4.0229347394248274</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.9110852226120256</v>
+        <v>5.9289963137010036</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.8077238844061245</v>
+        <v>7.8350578879771797</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.384000511381236</v>
+        <v>10.420353782995621</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12749,21 +11911,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12776,31 +11938,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53572476.4073622</v>
+        <v>53714364.397646561</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8620358145760427</v>
+        <v>2.8665815696496844</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8620358145760427</v>
+        <v>2.8665815696496844</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.0990070158163752</v>
+        <v>4.1083461265777181</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3359782170567076</v>
+        <v>5.3501106835057524</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.0966649634345425</v>
+        <v>7.1154606510134863</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12810,21 +11972,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12837,31 +11999,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34519461.552884407</v>
+        <v>34584890.990205191</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4382411876969847</v>
+        <v>3.4447581545372561</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.4382411876969847</v>
+        <v>3.4447581545372561</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.0050461192142004</v>
+        <v>5.0186712201393604</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.5718510507314161</v>
+        <v>6.5925842857414665</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.7403327374078899</v>
+        <v>8.767907217004554</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12870,7 +12032,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1701EB18-9BC7-4788-8367-AED6DEEA7E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B4664B3-C0B6-4F09-B1ED-02D6324BAB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45638</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>10039860402</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3115,7 +3135,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>3563014</v>
@@ -3223,9 +3243,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3241,7 +3261,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3257,7 +3277,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3272,10 +3292,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3287,9 +3308,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3336,10 +3357,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3353,9 +3375,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3369,7 +3391,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3385,7 +3407,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>1.3+0.19</f>
@@ -3413,23 +3435,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1766128495985371</v>
+        <v>0.17601641475825019</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.50968808944544264</v>
+        <v>0.50796683453723213</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23706422764904309</v>
+        <v>0.23626364397080563</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11853211382452154</v>
+        <v>0.11813182198540281</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3462,13 +3484,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3486,7 +3508,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3496,7 +3518,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3527,7 +3549,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3538,7 +3560,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3572,7 +3594,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3639,7 +3661,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3650,7 +3672,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3697,7 +3719,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3810,7 +3832,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3828,7 +3850,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3836,10 +3858,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3847,7 +3869,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3855,10 +3877,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3880,7 +3902,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3919,7 +3941,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3940,7 +3962,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3958,7 +3980,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3997,7 +4019,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4015,7 +4037,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4036,28 +4058,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4099,8 +4126,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4141,7 +4168,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4153,15 +4180,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.02</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4181,7 +4208,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4194,7 +4221,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>90559.54082604</v>
+        <v>90860.736638100003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4228,7 +4255,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4243,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4253,40 +4280,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4299,29 +4326,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4331,12 +4358,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4346,7 +4373,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4354,21 +4381,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4376,10 +4403,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4387,58 +4414,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.18516910688097288</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.008431596699165E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.641675230268492</v>
+        <v>12.684511777969343</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4447,18 +4474,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9266056912260771E-2</v>
+        <v>5.9065910992701406E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4468,40 +4495,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0229347394248274</v>
+        <v>4.0196236809830452</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.983406850444963</v>
+        <v>11.967834970813236</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9289963137010036</v>
+        <v>5.9222501378943022</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.420353782995621</v>
+        <v>10.406813018098466</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4509,21 +4536,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4533,25 +4560,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4561,7 +4588,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4571,14 +4598,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4588,7 +4615,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4603,14 +4630,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5510,27 +5537,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5562,12 +5589,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5594,16 +5621,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5621,7 +5648,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5654,7 +5681,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5665,7 +5692,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6021,7 +6048,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6072,7 +6099,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6123,7 +6150,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6174,7 +6201,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6276,7 +6303,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6429,7 +6456,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6684,7 +6711,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6735,7 +6762,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6789,15 +6816,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6837,50 +6864,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6888,50 +6915,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6939,101 +6966,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7041,101 +7068,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7143,50 +7170,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7194,50 +7221,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7245,50 +7272,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7296,272 +7323,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.62920363337402252</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.52273001482100712</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.63232591156962858</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.79612628325556378</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.68985183374755277</v>
+      </c>
+      <c r="H40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.63962073152911059</v>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.12732014981812276</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.12754226422310702</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.13916468223036041</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.12200450732621347</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.12945133964570332</v>
+      </c>
+      <c r="H41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.15804356848294035</v>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.62920363337402252</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.52273001482100712</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.63232591156962858</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.79612628325556378</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.68985183374755277</v>
-      </c>
-      <c r="H42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.63962073152911059</v>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7569,50 +7596,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.12732014981812276</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>3.008431596699165E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.12754226422310702</v>
+        <f t="shared" si="37"/>
+        <v>3.870117564508832E-2</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.13916468223036041</v>
+        <f t="shared" si="37"/>
+        <v>4.8973919936231652E-2</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.12200450732621347</v>
+        <f t="shared" si="37"/>
+        <v>4.1477195296154595E-2</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.12945133964570332</v>
+        <f t="shared" si="37"/>
+        <v>4.0575893297220174E-2</v>
       </c>
       <c r="H43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.15804356848294035</v>
+        <f t="shared" si="37"/>
+        <v>5.3558919297706245E-2</v>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7620,50 +7647,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>5.8307109926881803E-2</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>7.4886420629173917E-2</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2.3050883881091888E-2</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>4.7944287316563944E-2</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>5.4168592126159584E-2</v>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7671,50 +7698,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>3.008431596699165E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.870117564508832E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.8973919936231652E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.1477195296154595E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.0575893297220174E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.3558919297706245E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7722,221 +7749,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>5.8307109926881803E-2</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.15508479091398122</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>7.4886420629173917E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.23614012468162365</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.3050883881091888E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.15648460238268738</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>4.0392014122068165E-2</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>4.7944287316563944E-2</v>
+        <f t="shared" si="40"/>
+        <v>9.2176645992959799E-2</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>5.4168592126159584E-2</v>
+        <f t="shared" si="40"/>
+        <v>9.4608188564083248E-2</v>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.15508479091398122</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.23614012468162365</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.15648460238268738</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>4.0392014122068165E-2</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>9.2176645992959799E-2</v>
-      </c>
-      <c r="H48" s="153">
-        <f t="shared" si="40"/>
-        <v>9.4608188564083248E-2</v>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7944,522 +7971,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="e">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.19398624320084429</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.16389072249905537</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.31296318737139767</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.0268662308051022</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.44019711131949024</v>
+      </c>
+      <c r="H55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.56611293494355286</v>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.19398624320084429</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.16389072249905537</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.31296318737139767</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.0268662308051022</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.44019711131949024</v>
-      </c>
-      <c r="H57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.56611293494355286</v>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9019,12 +8950,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9706,27 +9633,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9918,7 +9848,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9965,7 +9895,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9993,7 +9923,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10076,7 +10006,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10098,7 +10028,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10166,7 +10096,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10488,7 +10418,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10625,7 +10555,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10956,7 +10886,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11022,7 +10952,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11057,7 +10987,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11078,7 +11008,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11099,7 +11029,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11114,7 +11044,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11145,7 +11075,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11159,7 +11089,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11180,7 +11110,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11195,7 +11125,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11217,7 +11147,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11225,11 +11155,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11257,7 +11187,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11329,7 +11259,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11359,7 +11289,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11389,7 +11319,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11447,12 +11377,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11482,7 +11412,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11512,7 +11442,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11563,7 +11493,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11594,7 +11524,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11615,28 +11545,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16263582419056238</v>
+        <v>0.16208659081345236</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7193026252677045E-2</v>
+        <v>4.7033651863216397E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9103440152113555E-2</v>
+        <v>7.8836301901411415E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11666,21 +11596,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1766128495985371</v>
+        <v>0.17601641475825019</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.555963414735646E-2</v>
+        <v>3.5439546595620847E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9266056912260771E-2</v>
+        <v>5.9065910992701406E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11697,27 +11627,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11736,24 +11666,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.091558702985564</v>
+        <v>8.0848989817904524</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.759099997461465</v>
+        <v>15.73862178026268</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11764,18 +11694,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7657194436699228</v>
+        <v>5.7620177734471998</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.76098357718983</v>
+        <v>10.750150630235886</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11794,14 +11724,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11814,31 +11744,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78662887.436879843</v>
+        <v>78560668.674724936</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0229347394248274</v>
+        <v>4.0196236809830452</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.8350578879771797</v>
+        <v>7.8248765948055583</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.420353782995621</v>
+        <v>10.406813018098466</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11856,7 +11786,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11881,27 +11811,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>78662887.436879843</v>
+        <v>78560668.674724936</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0229347394248274</v>
+        <v>4.0196236809830452</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0229347394248274</v>
+        <v>4.0196236809830452</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.9289963137010036</v>
+        <v>5.9222501378943022</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.8350578879771797</v>
+        <v>7.8248765948055592</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.420353782995621</v>
+        <v>10.406813018098466</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11911,21 +11841,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11938,31 +11868,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53714364.397646561</v>
+        <v>53660290.821935706</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8665815696496844</v>
+        <v>2.8647411853331999</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8665815696496844</v>
+        <v>2.8647411853331999</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1083461265777181</v>
+        <v>4.1047329898193663</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3501106835057524</v>
+        <v>5.3447247943055318</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1154606510134863</v>
+        <v>7.1082976061828367</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11972,21 +11902,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11999,31 +11929,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34584890.990205191</v>
+        <v>34559031.107124247</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4447581545372561</v>
+        <v>3.4421824331581226</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.4447581545372561</v>
+        <v>3.4421824331581226</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.0186712201393604</v>
+        <v>5.0134915638568343</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.5925842857414665</v>
+        <v>6.5848006945555451</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.767907217004554</v>
+        <v>8.7575553121406511</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12032,7 +11962,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B4664B3-C0B6-4F09-B1ED-02D6324BAB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1370A83F-8C50-46F9-A77C-5717AF21ADE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45638</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>10039860402</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>271</v>
+      <c r="C11" s="191" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,459 +3045,463 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>118434270</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>154601505</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>108615647</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>69123020</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>67804644</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H25" s="148">
         <v>67447104</v>
       </c>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>74519273</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>80814847</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>68680488</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>55030653</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>46775158</v>
       </c>
-      <c r="H26" s="150">
+      <c r="H26" s="149">
         <v>43140566</v>
       </c>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>15079069</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>19718226</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>15115462</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>8433320</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>8777402</v>
       </c>
-      <c r="H27" s="150">
+      <c r="H27" s="149">
         <v>10659581</v>
       </c>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>3563014</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>5983260</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>5319334</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>2867029</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>2751234</v>
       </c>
-      <c r="H29" s="150">
+      <c r="H29" s="149">
         <v>3612394</v>
       </c>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <f>4734427+444743</f>
         <v>5179170</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <f>8221221+461944</f>
         <v>8683165</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <f>178664+1699101</f>
         <v>1877765</v>
       </c>
-      <c r="F30" s="150">
+      <c r="F30" s="149">
         <f>491042+56656-1308377</f>
         <v>-760679</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="149">
         <f>580181+200566+1657387</f>
         <v>2438134</v>
       </c>
-      <c r="H30" s="150">
+      <c r="H30" s="149">
         <f>607095+202733+1930308</f>
         <v>2740136</v>
       </c>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>1.3+0.19</f>
         <v>1.49</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>3.07+1.23</f>
         <v>4.3</v>
       </c>
-      <c r="E44" s="250">
+      <c r="E44" s="247">
         <f>1.6+0.4</f>
         <v>2</v>
       </c>
-      <c r="F44" s="250">
+      <c r="F44" s="247">
         <f>0.6+0.4</f>
         <v>1</v>
       </c>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.17601641475825019</v>
-      </c>
-      <c r="D45" s="152">
+        <v>0.1760694317761424</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.50796683453723213</v>
-      </c>
-      <c r="E45" s="152">
+        <v>0.50811983666940419</v>
+      </c>
+      <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23626364397080563</v>
-      </c>
-      <c r="F45" s="152">
+        <v>0.23633480775321128</v>
+      </c>
+      <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11813182198540281</v>
-      </c>
-      <c r="G45" s="152" t="str">
+        <v>0.11816740387660564</v>
+      </c>
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3560,7 +3572,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3588,7 +3600,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3600,7 +3612,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3619,8 +3631,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3672,7 +3684,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3688,7 +3700,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3700,7 +3712,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3713,7 +3725,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3761,14 +3773,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3792,7 +3804,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3822,19 +3834,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3850,20 +3862,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3893,10 +3905,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3908,12 +3920,12 @@
         <f>C25</f>
         <v>118434270</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91*0.7</f>
         <v>82903989</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91*0.8</f>
         <v>94747416</v>
       </c>
@@ -3926,75 +3938,75 @@
         <f>C26</f>
         <v>74519273</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.62920363337402252</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*72%</f>
         <v>59690872.079999998</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*69%</f>
         <v>65375717.039999992</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>15079069</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.12732014981812276</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>10555348.300000001</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>12063255.200000001</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>3563014</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>2850411.2</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4007,12 +4019,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4025,12 +4037,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>6905560</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>5.8307109926881803E-2</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>5524448</v>
       </c>
@@ -4039,15 +4051,15 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>1.49</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <v>0.3</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <v>0.5</v>
       </c>
       <c r="G98" s="1"/>
@@ -4127,7 +4139,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4179,11 +4191,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4221,7 +4233,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>90860.736638100003</v>
+        <v>90760.338034079992</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4231,11 +4243,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4257,11 +4269,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0017</v>
       </c>
@@ -4269,8 +4281,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4279,10 +4291,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4290,7 +4302,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4298,13 +4310,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4313,12 +4325,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4328,7 +4340,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4339,7 +4351,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4347,13 +4359,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4363,49 +4375,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4413,79 +4425,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.18516910688097288</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.684511777969343</v>
+        <v>12.680692290502934</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.74922224366340984</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9065910992701406E-2</v>
+        <v>5.908370193830282E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4502,10 +4514,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4513,22 +4525,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0196236809830452</v>
-      </c>
-      <c r="D29" s="129">
+        <v>4.0166632246264227</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>11.967834970813236</v>
+        <v>11.959527729740188</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9222501378943022</v>
+        <v>5.9180541663756774</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.406813018098466</v>
+        <v>10.39958933020886</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4536,23 +4548,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4560,9 +4572,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4570,17 +4582,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4588,26 +4600,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4615,9 +4627,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4630,16 +4642,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5591,10 +5603,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5620,16 +5632,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5643,11 +5655,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85">
@@ -5672,7 +5684,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5680,7 +5692,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93">
@@ -5744,47 +5756,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>118434270</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>154601505</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>108615647</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>69123020</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>67804644</v>
       </c>
-      <c r="H6" s="200">
+      <c r="H6" s="199">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>67447104</v>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5846,47 +5858,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>74519273</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>80814847</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>68680488</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>55030653</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>46775158</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>43140566</v>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5897,47 +5909,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>43914997</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>73786658</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>39935159</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>14092367</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>21029486</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <f t="shared" si="2"/>
         <v>24306538</v>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5948,47 +5960,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>15079069</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>19718226</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>15115462</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>8433320</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>8777402</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="198">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>10659581</v>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5999,47 +6011,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6048,49 +6060,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>6905560</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>11577553.333333334</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2503686.6666666665</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3250845.3333333335</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="198">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3653514.6666666665</v>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6098,50 +6110,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.18516910688097288</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.274841300326712</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.20545852231891903</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>8.186920941822276E-2</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>0.13275253929017997</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="226">
         <f t="shared" si="3"/>
         <v>0.14816710786178949</v>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6149,50 +6161,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>21930368</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>42490878.666666664</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>22316010.333333332</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>5659047</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>9001238.666666666</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f t="shared" si="4"/>
         <v>9993442.333333334</v>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6200,50 +6212,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.4838805718271959</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>0.90405354863983978</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>2.9434219813571669</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>-0.37130352726269222</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="229">
         <f t="shared" si="5"/>
         <v>-9.9285474771506108E-2</v>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6254,47 +6266,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6303,49 +6315,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>3563014</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5983260</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>5319334</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>2867029</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>2751234</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="198">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>3612394</v>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6356,47 +6368,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6407,47 +6419,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6456,49 +6468,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="152">
+      <c r="H20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6509,47 +6521,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6560,47 +6572,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>18367354</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>36507618.666666664</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>16996676.333333332</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>2792018</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>6250004.666666666</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="160">
         <f t="shared" si="8"/>
         <v>6381048.333333334</v>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6611,47 +6623,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.11631359318548593</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.17710509351121775</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>0.11736345178701554</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>3.029401059155112E-2</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>6.9132484494719856E-2</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <f t="shared" si="9"/>
         <v>7.0956141423062433E-2</v>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6662,7 +6674,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>13775515.5</v>
       </c>
@@ -6710,50 +6722,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.49688983640090612</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>1.1479269211633514</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>5.087595543199698</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>-0.55327745355283464</v>
       </c>
-      <c r="G25" s="233">
+      <c r="G25" s="230">
         <f t="shared" si="10"/>
         <v>-2.053638521778945E-2</v>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6870,43 +6882,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6921,43 +6933,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6966,49 +6978,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7023,43 +7035,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7074,43 +7086,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7176,43 +7188,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7227,43 +7239,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7278,43 +7290,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7376,47 +7388,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7425,7 +7437,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7445,47 +7457,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.62920363337402252</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.52273001482100712</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.63232591156962858</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.79612628325556378</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.68985183374755277</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="34"/>
         <v>0.63962073152911059</v>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7494,49 +7506,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.12732014981812276</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.12754226422310702</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.13916468223036041</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.12200450732621347</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.12945133964570332</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <f t="shared" si="35"/>
         <v>0.15804356848294035</v>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7547,47 +7559,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7598,47 +7610,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>3.870117564508832E-2</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>4.8973919936231652E-2</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>4.1477195296154595E-2</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>4.0575893297220174E-2</v>
       </c>
-      <c r="H43" s="153">
+      <c r="H43" s="152">
         <f t="shared" si="37"/>
         <v>5.3558919297706245E-2</v>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7649,47 +7661,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>5.8307109926881803E-2</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>7.4886420629173917E-2</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>2.3050883881091888E-2</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>4.7944287316563944E-2</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <f t="shared" si="38"/>
         <v>5.4168592126159584E-2</v>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7698,49 +7710,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7751,47 +7763,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.15508479091398122</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.23614012468162365</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>0.15648460238268738</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>4.0392014122068165E-2</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>9.2176645992959799E-2</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <f t="shared" si="40"/>
         <v>9.4608188564083248E-2</v>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7800,9 +7812,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7817,50 +7831,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="e">
+      <c r="G48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="272" t="e">
+      <c r="H48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7869,49 +7883,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7920,49 +7934,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7971,49 +7985,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="e">
+      <c r="D51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="e">
+      <c r="F51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="153" t="e">
+      <c r="G51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8022,7 +8036,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8039,49 +8053,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8091,47 +8105,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8141,47 +8155,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.19398624320084429</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.16389072249905537</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>0.31296318737139767</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>1.0268662308051022</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>0.44019711131949024</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="152">
         <f t="shared" si="47"/>
         <v>0.56611293494355286</v>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8191,47 +8205,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8239,149 +8253,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="e">
+      <c r="H58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="e">
+      <c r="H59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9677,8 +9691,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9714,8 +9728,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9727,8 +9741,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9738,8 +9752,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9826,11 +9840,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9873,7 +9887,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9901,7 +9915,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9929,7 +9943,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9957,7 +9971,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9970,7 +9984,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9985,7 +9999,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10012,7 +10026,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10034,7 +10048,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10056,7 +10070,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10077,7 +10091,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10085,7 +10099,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10102,7 +10116,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10110,7 +10124,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10129,7 +10143,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10150,7 +10164,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10315,7 +10329,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10344,7 +10358,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10370,7 +10384,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10397,7 +10411,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10424,7 +10438,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10440,7 +10454,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10454,7 +10468,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10481,7 +10495,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10489,7 +10503,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10507,7 +10521,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10515,7 +10529,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10534,7 +10548,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10542,7 +10556,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10561,7 +10575,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10582,7 +10596,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10603,7 +10617,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10624,7 +10638,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10645,7 +10659,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10791,8 +10805,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10818,8 +10832,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10889,7 +10903,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10989,7 +11003,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10997,7 +11011,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -11028,11 +11042,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11109,12 +11123,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11193,17 +11207,17 @@
         <f>Data!C6</f>
         <v>118434270</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>82903989</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>94747416</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11214,23 +11228,23 @@
         <f>Data!C8</f>
         <v>74519273</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.62920363337402252</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>59690872.079999998</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.72</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>65375717.039999992</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.69</v>
       </c>
@@ -11240,48 +11254,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>43914997</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>23213116.920000002</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>29371698.960000008</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>15079069</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.12732014981812276</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>10555348.300000001</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.12732014981812276</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>12063255.200000001</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.12732014981812276</v>
       </c>
@@ -11295,54 +11309,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>6905560</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>5.8307109926881803E-2</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>4833892</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>5.8307109926881803E-2</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>5524448</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>5.8307109926881803E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>21930368</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.18516910688097288</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>7823876.620000001</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>9.4372740254995466E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>11783995.760000005</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.12437274025499551</v>
       </c>
@@ -11356,55 +11370,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>3563014</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>2494109.8000000003</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>2850411.2</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>3.008431596699165E-2</v>
       </c>
@@ -11412,29 +11426,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11444,27 +11458,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>18367354</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.15508479091398122</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>5329766.82</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>6.4288424288003812E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>8933584.5600000061</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>9.4288424288003866E-2</v>
       </c>
@@ -11474,49 +11488,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>13775515.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.11631359318548593</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>3997325.1150000002</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>4.8216318216002856E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>6700188.4200000046</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>7.0716318216002896E-2</v>
       </c>
@@ -11526,69 +11540,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.3720823744975414</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.39814548758105334</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.66735872330110158</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16208659081345236</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.16213541209922305</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7033651863216397E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>4.7047818632638405E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8836301901411415E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>7.8860047786897175E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>1.49</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>1.0859406313310016</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.3</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.75349340720313163</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.5</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.74922224366340984</v>
       </c>
@@ -11596,23 +11610,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17601641475825019</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>0.1760694317761424</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5439546595620847E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>3.5450221162981695E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9065910992701406E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>5.908370193830282E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11634,7 +11648,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11657,27 +11671,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0848989817904524</v>
+        <v>8.0789444466192801</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.73862178026268</v>
+        <v>15.727697120488791</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11685,27 +11699,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7620177734471998</v>
+        <v>5.7576813102540765</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.750150630235886</v>
+        <v>10.742408679388715</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11719,25 +11733,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11748,21 +11762,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78560668.674724936</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>78506137.30667612</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0196236809830452</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>4.0166632246264227</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.8248765948055583</v>
-      </c>
-      <c r="I97" s="123">
+        <v>7.8194451081249321</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.406813018098466</v>
+        <v>10.39958933020886</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11774,14 +11788,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11792,17 +11806,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11811,27 +11825,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>78560668.674724936</v>
+        <v>78506137.30667612</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0196236809830452</v>
+        <v>4.0166632246264227</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0196236809830452</v>
+        <v>4.0166632246264227</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.9222501378943022</v>
+        <v>5.9180541663756774</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.8248765948055592</v>
+        <v>7.8194451081249321</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.406813018098466</v>
+        <v>10.39958933020886</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11843,25 +11857,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11872,27 +11886,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53660290.821935706</v>
+        <v>53621646.216080606</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8647411853331999</v>
-      </c>
-      <c r="E103" s="123">
+        <v>2.8625851967201017</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8647411853331999</v>
+        <v>2.8625851967201017</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1047329898193663</v>
-      </c>
-      <c r="H103" s="123">
+        <v>4.1017304365892979</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3447247943055318</v>
+        <v>5.340875676458495</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1082976061828367</v>
+        <v>7.1031784136647946</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11904,25 +11918,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11933,27 +11947,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34559031.107124247</v>
+        <v>34533346.910498992</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4421824331581226</v>
-      </c>
-      <c r="E106" s="123">
+        <v>3.4396242106732622</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.4421824331581226</v>
+        <v>3.4396242106732622</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.0134915638568343</v>
-      </c>
-      <c r="H106" s="123">
+        <v>5.0098923014824877</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>6.5848006945555451</v>
-      </c>
-      <c r="I106" s="123">
+        <v>6.5801603922917131</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>8.7575553121406511</v>
+        <v>8.7513838719368273</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11964,14 +11978,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1370A83F-8C50-46F9-A77C-5717AF21ADE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{453DAD03-6F40-4BF3-89DD-21D61C27E487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3451,19 +3451,19 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1760694317761424</v>
+        <v>0.17625891343831754</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.50811983666940419</v>
+        <v>0.5086666629427955</v>
       </c>
       <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23633480775321128</v>
+        <v>0.23658914555478863</v>
       </c>
       <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11816740387660564</v>
+        <v>0.11829457277739432</v>
       </c>
       <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>9.0399999999999991</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>274</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>90760.338034079992</v>
+        <v>90659.939430059996</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4282,7 +4282,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.680692290502934</v>
+        <v>12.667060306702146</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.908370193830282E-2</v>
+        <v>5.9147286388697158E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4527,20 +4527,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0166632246264227</v>
+        <v>4.0175090926783934</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>11.959527729740188</v>
+        <v>11.963858985914246</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9180541663756774</v>
+        <v>5.919893043433345</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.39958933020886</v>
+        <v>10.403355639925433</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11563,17 +11563,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16213541209922305</v>
+        <v>0.16230989830657944</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7047818632638405E-2</v>
+        <v>4.7098450356648058E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8860047786897175E-2</v>
+        <v>7.894491506217112E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11614,17 +11614,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1760694317761424</v>
+        <v>0.17625891343831754</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5450221162981695E-2</v>
+        <v>3.5488371833218291E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.908370193830282E-2</v>
+        <v>5.9147286388697158E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11684,14 +11684,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0789444466192801</v>
+        <v>8.0806457894052883</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.727697120488791</v>
+        <v>15.733393054876522</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11712,14 +11712,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7576813102540765</v>
+        <v>5.7585623569670306</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.742408679388715</v>
+        <v>10.745298424637481</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11762,21 +11762,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78506137.30667612</v>
+        <v>78534569.047426671</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0166632246264227</v>
+        <v>4.0175090926783934</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.8194451081249321</v>
+        <v>7.8222769941882975</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.39958933020886</v>
+        <v>10.403355639925433</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11825,27 +11825,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>78506137.30667612</v>
+        <v>78534569.047426671</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0166632246264227</v>
+        <v>4.0175090926783934</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0166632246264227</v>
+        <v>4.0175090926783934</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.9180541663756774</v>
+        <v>5.919893043433345</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.8194451081249321</v>
+        <v>7.8222769941882966</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.39958933020886</v>
+        <v>10.403355639925433</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11886,27 +11886,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53621646.216080606</v>
+        <v>53636070.625168785</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8625851967201017</v>
+        <v>2.8630232326484935</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8625851967201017</v>
+        <v>2.8630232326484935</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1017304365892979</v>
+        <v>4.102667811607807</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.340875676458495</v>
+        <v>5.3423123905671197</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1031784136647946</v>
+        <v>7.1050891933311275</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11947,27 +11947,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34533346.910498992</v>
+        <v>34539792.018865198</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.4396242106732622</v>
+        <v>3.4402661626634434</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.4396242106732622</v>
+        <v>3.4402661626634434</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.0098923014824877</v>
+        <v>5.0112804275205765</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>6.5801603922917131</v>
+        <v>6.5822946923777081</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>8.7513838719368273</v>
+        <v>8.7542224166282807</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{453DAD03-6F40-4BF3-89DD-21D61C27E487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB431FB5-4C29-49DE-9D3D-67C40B48E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1681,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1829,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2018,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2353,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2823,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>10039860402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>10039860402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,857 +3036,858 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>118434270</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>154601505</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>108615647</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>69123020</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>67804644</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="147">
         <v>67447104</v>
       </c>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>74519273</v>
+      </c>
+      <c r="D26" s="148">
+        <v>80814847</v>
+      </c>
+      <c r="E26" s="148">
+        <v>68680488</v>
+      </c>
+      <c r="F26" s="148">
+        <v>55030653</v>
+      </c>
+      <c r="G26" s="148">
+        <v>46775158</v>
+      </c>
+      <c r="H26" s="148">
+        <v>43140566</v>
+      </c>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>15079069</v>
+      </c>
+      <c r="D27" s="148">
+        <v>19718226</v>
+      </c>
+      <c r="E27" s="148">
+        <v>15115462</v>
+      </c>
+      <c r="F27" s="148">
+        <v>8433320</v>
+      </c>
+      <c r="G27" s="148">
+        <v>8777402</v>
+      </c>
+      <c r="H27" s="148">
+        <v>10659581</v>
+      </c>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>74519273</v>
-      </c>
-      <c r="D26" s="149">
-        <v>80814847</v>
-      </c>
-      <c r="E26" s="149">
-        <v>68680488</v>
-      </c>
-      <c r="F26" s="149">
-        <v>55030653</v>
-      </c>
-      <c r="G26" s="149">
-        <v>46775158</v>
-      </c>
-      <c r="H26" s="149">
-        <v>43140566</v>
-      </c>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
-        <v>15079069</v>
-      </c>
-      <c r="D27" s="149">
-        <v>19718226</v>
-      </c>
-      <c r="E27" s="149">
-        <v>15115462</v>
-      </c>
-      <c r="F27" s="149">
-        <v>8433320</v>
-      </c>
-      <c r="G27" s="149">
-        <v>8777402</v>
-      </c>
-      <c r="H27" s="149">
-        <v>10659581</v>
-      </c>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
         <v>3563014</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="148">
         <v>5983260</v>
       </c>
-      <c r="E29" s="149">
+      <c r="E29" s="148">
         <v>5319334</v>
       </c>
-      <c r="F29" s="149">
+      <c r="F29" s="148">
         <v>2867029</v>
       </c>
-      <c r="G29" s="149">
+      <c r="G29" s="148">
         <v>2751234</v>
       </c>
-      <c r="H29" s="149">
+      <c r="H29" s="148">
         <v>3612394</v>
       </c>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
         <f>4734427+444743</f>
         <v>5179170</v>
       </c>
-      <c r="D30" s="149">
+      <c r="D30" s="148">
         <f>8221221+461944</f>
         <v>8683165</v>
       </c>
-      <c r="E30" s="149">
+      <c r="E30" s="148">
         <f>178664+1699101</f>
         <v>1877765</v>
       </c>
-      <c r="F30" s="149">
+      <c r="F30" s="148">
         <f>491042+56656-1308377</f>
         <v>-760679</v>
       </c>
-      <c r="G30" s="149">
+      <c r="G30" s="148">
         <f>580181+200566+1657387</f>
         <v>2438134</v>
       </c>
-      <c r="H30" s="149">
+      <c r="H30" s="148">
         <f>607095+202733+1930308</f>
         <v>2740136</v>
       </c>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="B33" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148">
+        <v>0</v>
+      </c>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>0</v>
+      </c>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148">
+        <v>0</v>
+      </c>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>1.3+0.19</f>
         <v>1.49</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>3.07+1.23</f>
         <v>4.3</v>
       </c>
-      <c r="E44" s="247">
+      <c r="E44" s="245">
         <f>1.6+0.4</f>
         <v>2</v>
       </c>
-      <c r="F44" s="247">
+      <c r="F44" s="245">
         <f>0.6+0.4</f>
         <v>1</v>
       </c>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.17625891343831754</v>
-      </c>
-      <c r="D45" s="151">
+        <v>0.17759713428538468</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.5086666629427955</v>
-      </c>
-      <c r="E45" s="151">
+        <v>0.51252864256855979</v>
+      </c>
+      <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23658914555478863</v>
-      </c>
-      <c r="F45" s="151">
+        <v>0.23838541514816736</v>
+      </c>
+      <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11829457277739432</v>
-      </c>
-      <c r="G45" s="151" t="str">
+        <v>0.11919270757408368</v>
+      </c>
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3901,165 +3896,165 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>118434270</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91*0.7</f>
         <v>82903989</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91*0.8</f>
         <v>94747416</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>74519273</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.62920363337402252</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*72%</f>
         <v>59690872.079999998</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*69%</f>
         <v>65375717.039999992</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>15079069</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.12732014981812276</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>10555348.300000001</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>12063255.200000001</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>3563014</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>2850411.2</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>6905560</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>5.8307109926881803E-2</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>5524448</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>1.49</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <v>0.3</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <v>0.5</v>
       </c>
       <c r="G98" s="1"/>
@@ -4071,32 +4066,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4155,13 +4150,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4172,82 +4167,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1171.HK : 兗礦能源</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1171.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>274</v>
+      <c r="G3" s="130">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>兗礦能源</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>10039860402</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45638</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>90659.939430059996</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>89957.149201920009</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4258,31 +4253,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0017</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4291,280 +4286,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.18516910688097288</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.667060306702146</v>
+        <v>12.571612121450201</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.74922224366340984</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9147286388697158E-2</v>
+        <v>5.9596353787041839E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0175090926783934</v>
-      </c>
-      <c r="D29" s="128">
+        <v>4.0234946926922071</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>11.963858985914246</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>11.994506294072531</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.919893043433345</v>
-      </c>
-      <c r="G29" s="286">
+        <v>5.9329048403969447</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.403355639925433</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>10.430005473106549</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4572,9 +4567,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4582,17 +4577,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4600,26 +4595,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4627,9 +4622,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4642,16 +4637,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5603,10 +5598,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5632,59 +5627,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84">
         <f>H14</f>
         <v>9993442.333333334</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>21930368</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5692,19 +5687,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>0.13995699569776021</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5753,928 +5748,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>118434270</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>154601505</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>108615647</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>69123020</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>67804644</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="197">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>67447104</v>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-0.23393844063807789</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>0.42338152255355999</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.57133827486125455</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>1.9443741936024272E-2</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f t="shared" si="1"/>
         <v>5.3010430218027871E-3</v>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>74519273</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>80814847</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>68680488</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>55030653</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>46775158</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="196">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>43140566</v>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>43914997</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>73786658</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>39935159</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>14092367</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>21029486</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
         <v>24306538</v>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>15079069</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>19718226</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>15115462</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>8433320</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>8777402</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="196">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>10659581</v>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>6905560</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>11577553.333333334</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2503686.6666666665</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3250845.3333333335</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="196">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>3653514.6666666665</v>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.18516910688097288</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.274841300326712</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>0.20545852231891903</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>8.186920941822276E-2</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>0.13275253929017997</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="224">
         <f t="shared" si="3"/>
         <v>0.14816710786178949</v>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>21930368</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>42490878.666666664</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>22316010.333333332</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>5659047</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>9001238.666666666</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="225">
         <f t="shared" si="4"/>
         <v>9993442.333333334</v>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.4838805718271959</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>0.90405354863983978</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>2.9434219813571669</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>-0.37130352726269222</v>
       </c>
-      <c r="G15" s="229">
+      <c r="G15" s="227">
         <f t="shared" si="5"/>
         <v>-9.9285474771506108E-2</v>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>3563014</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5983260</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>5319334</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>2867029</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>2751234</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="196">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>3612394</v>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="151">
+      <c r="H20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>18367354</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>36507618.666666664</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>16996676.333333332</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>2792018</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>6250004.666666666</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="158">
         <f t="shared" si="8"/>
         <v>6381048.333333334</v>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.11631359318548593</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.17710509351121775</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>0.11736345178701554</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>3.029401059155112E-2</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>6.9132484494719856E-2</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <f t="shared" si="9"/>
         <v>7.0956141423062433E-2</v>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>13775515.5</v>
       </c>
@@ -6718,63 +6713,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.49688983640090612</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>1.1479269211633514</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>5.087595543199698</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>-0.55327745355283464</v>
       </c>
-      <c r="G25" s="230">
+      <c r="G25" s="228">
         <f t="shared" si="10"/>
         <v>-2.053638521778945E-2</v>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6820,11 +6815,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6871,266 +6866,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7177,165 +7172,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7381,63 +7376,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7450,372 +7445,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.62920363337402252</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.52273001482100712</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.63232591156962858</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.79612628325556378</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.68985183374755277</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="154">
         <f t="shared" si="34"/>
         <v>0.63962073152911059</v>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.12732014981812276</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.12754226422310702</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.13916468223036041</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.12200450732621347</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.12945133964570332</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="151">
         <f t="shared" si="35"/>
         <v>0.15804356848294035</v>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>3.870117564508832E-2</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>4.8973919936231652E-2</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>4.1477195296154595E-2</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>4.0575893297220174E-2</v>
       </c>
-      <c r="H43" s="152">
+      <c r="H43" s="151">
         <f t="shared" si="37"/>
         <v>5.3558919297706245E-2</v>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>5.8307109926881803E-2</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>7.4886420629173917E-2</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>2.3050883881091888E-2</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>4.7944287316563944E-2</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="151">
         <f t="shared" si="38"/>
         <v>5.4168592126159584E-2</v>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.15508479091398122</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.23614012468162365</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>0.15648460238268738</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>4.0392014122068165E-2</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>9.2176645992959799E-2</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="151">
         <f t="shared" si="40"/>
         <v>9.4608188564083248E-2</v>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7827,216 +7822,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="E48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="F48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="269" t="e">
+      <c r="G48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="269" t="e">
+      <c r="H48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="e">
+      <c r="D51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="e">
+      <c r="F51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="152" t="e">
+      <c r="G51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8052,350 +8047,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.19398624320084429</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.16389072249905537</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>0.31296318737139767</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>1.0268662308051022</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>0.44019711131949024</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="151">
         <f t="shared" si="47"/>
         <v>0.56611293494355286</v>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="e">
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="271" t="e">
+      <c r="H58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="e">
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="271" t="e">
+      <c r="H59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9674,7 +9669,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9692,7 +9687,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9710,25 +9705,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9736,12 +9731,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9749,28 +9744,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9783,7 +9778,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9792,16 +9787,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9809,7 +9804,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9819,287 +9814,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10110,21 +10105,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10137,45 +10132,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10183,17 +10178,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10203,19 +10198,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10225,17 +10220,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10244,7 +10239,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10254,17 +10249,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10277,7 +10272,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10287,17 +10282,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10324,12 +10319,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10339,171 +10334,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10511,25 +10506,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10537,26 +10532,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10564,113 +10559,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10678,17 +10673,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10698,16 +10693,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10717,16 +10712,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10736,14 +10731,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10756,7 +10751,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10766,14 +10761,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10786,13 +10781,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10800,12 +10795,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10816,63 +10811,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10880,45 +10875,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10926,61 +10921,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10994,35 +10989,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11036,29 +11031,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11072,9 +11067,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11082,28 +11077,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11117,29 +11112,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11153,29 +11148,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11185,66 +11180,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>118434270</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>82903989</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>94747416</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>74519273</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.62920363337402252</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>59690872.079999998</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.72</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>65375717.039999992</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.69</v>
       </c>
@@ -11252,50 +11247,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>43914997</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>23213116.920000002</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>29371698.960000008</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>15079069</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.12732014981812276</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>10555348.300000001</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.12732014981812276</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>12063255.200000001</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.12732014981812276</v>
       </c>
@@ -11303,60 +11298,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>6905560</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>5.8307109926881803E-2</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>4833892</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>5.8307109926881803E-2</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>5524448</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>5.8307109926881803E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>21930368</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.18516910688097288</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>7823876.620000001</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>9.4372740254995466E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>11783995.760000005</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.12437274025499551</v>
       </c>
@@ -11364,61 +11359,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>3563014</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>2494109.8000000003</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>3.008431596699165E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>2850411.2</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>3.008431596699165E-2</v>
       </c>
@@ -11426,59 +11421,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>18367354</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.15508479091398122</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>5329766.82</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>6.4288424288003812E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>8933584.5600000061</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>9.4288424288003866E-2</v>
       </c>
@@ -11486,184 +11481,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>13775515.5</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.11631359318548593</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>3997325.1150000002</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>4.8216318216002856E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>6700188.4200000046</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>7.0716318216002896E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.3720823744975414</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.39814548758105334</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.66735872330110158</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16230989830657944</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.16354221323103982</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7098450356648058E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>4.7456038673189455E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.894491506217112E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>7.9544293153442025E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>1.49</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>1.0859406313310016</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.3</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.75349340720313163</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.5</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.74922224366340984</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17625891343831754</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>0.17759713428538468</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5488371833218291E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>3.5757812272225097E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9147286388697158E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>5.9596353787041839E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11671,55 +11666,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0806457894052883</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>8.0926849690145719</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.733393054876522</v>
+        <v>15.77369661795729</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7585623569670306</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>5.7647988143233642</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.745298424637481</v>
+        <v>10.765745091598619</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11729,123 +11724,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78534569.047426671</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>78735747.709053174</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0175090926783934</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>4.0234946926922071</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.8222769941882975</v>
-      </c>
-      <c r="I97" s="122">
+        <v>7.8423149881016823</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.403355639925433</v>
+        <v>10.430005473106549</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>78534569.047426671</v>
-      </c>
-      <c r="D100" s="109">
+        <v>78735747.709053174</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0175090926783934</v>
-      </c>
-      <c r="E100" s="109">
+        <v>4.0234946926922071</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0175090926783934</v>
-      </c>
-      <c r="F100" s="109">
+        <v>4.0234946926922071</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.919893043433345</v>
-      </c>
-      <c r="H100" s="109">
+        <v>5.9329048403969447</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.8222769941882966</v>
-      </c>
-      <c r="I100" s="109">
+        <v>7.8423149881016823</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.403355639925433</v>
+        <v>10.430005473106549</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11855,58 +11850,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53636070.625168785</v>
-      </c>
-      <c r="D103" s="109">
+        <v>53738131.901630163</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8630232326484935</v>
-      </c>
-      <c r="E103" s="122">
+        <v>2.8661238541567426</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8630232326484935</v>
-      </c>
-      <c r="F103" s="109">
+        <v>2.8661238541567426</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.102667811607807</v>
-      </c>
-      <c r="H103" s="122">
+        <v>4.1093009259256661</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3423123905671197</v>
-      </c>
-      <c r="I103" s="109">
+        <v>5.3524779976945904</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1050891933311275</v>
+        <v>7.1186090963365327</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11916,58 +11911,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34539792.018865198</v>
-      </c>
-      <c r="D106" s="109">
+        <v>34585404.216696776</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.4402661626634434</v>
-      </c>
-      <c r="E106" s="122">
+        <v>3.4448092734244748</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.4402661626634434</v>
-      </c>
-      <c r="F106" s="109">
+        <v>3.4448092734244748</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.0112804275205765</v>
-      </c>
-      <c r="H106" s="122">
+        <v>5.0211028831613049</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>6.5822946923777081</v>
-      </c>
-      <c r="I106" s="122">
+        <v>6.5973964928981363</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>8.7542224166282807</v>
+        <v>8.7743072847215409</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11976,15 +11971,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB431FB5-4C29-49DE-9D3D-67C40B48E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{939307DD-41F9-46D8-8F40-6B247D8603EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2872,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,6 +2945,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3445,19 +3462,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.17759713428538468</v>
+        <v>0.17631705606415463</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.51252864256855979</v>
+        <v>0.50883445709789588</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23838541514816736</v>
+        <v>0.23666718934785855</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11919270757408368</v>
+        <v>0.11833359467392927</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3878,11 +3895,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3896,10 +3913,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4119,8 +4136,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4133,8 +4153,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4177,60 +4197,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1171.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>8.9600000000000009</v>
+        <v>9.02</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>兗礦能源</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>10039860402</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45638</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>89957.149201920009</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>90559.54082604</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4253,11 +4273,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4277,7 +4297,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4398,7 +4418,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4410,20 +4430,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.18516910688097288</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4432,12 +4452,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.18516910688097288</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4448,10 +4468,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>3.008431596699165E-2</v>
       </c>
@@ -4460,7 +4480,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.571612121450201</v>
+        <v>12.662883194377851</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4492,7 +4512,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9596353787041839E-2</v>
+        <v>5.9166797336964637E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4511,10 +4531,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4522,22 +4542,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0234946926922071</v>
+        <v>4.0146816415137989</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>11.994506294072531</v>
+        <v>11.955994882442702</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9329048403969447</v>
-      </c>
-      <c r="G29" s="285">
+        <v>5.9159084418595391</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.430005473106549</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>10.396517289080611</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5568,7 +5588,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7809,7 +7829,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9736,7 +9756,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10783,7 +10803,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10800,7 +10820,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10909,11 +10929,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10924,11 +10944,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10940,11 +10960,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11158,19 +11178,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11180,18 +11200,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11558,17 +11578,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16354221323103982</v>
+        <v>0.16236343956303451</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7456038673189455E-2</v>
+        <v>4.711398674867031E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9544293153442025E-2</v>
+        <v>7.8970956665223482E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11609,17 +11629,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17759713428538468</v>
+        <v>0.17631705606415463</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5757812272225097E-2</v>
+        <v>3.5500078402178781E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9596353787041839E-2</v>
+        <v>5.9166797336964637E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11650,15 +11670,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11679,14 +11699,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0926849690145719</v>
+        <v>8.0749587751830756</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.77369661795729</v>
+        <v>15.723051155069136</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11707,14 +11727,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7647988143233642</v>
+        <v>5.7544079552753189</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.765745091598619</v>
+        <v>10.737928483932688</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11757,21 +11777,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78735747.709053174</v>
+        <v>78482946.575295463</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0234946926922071</v>
+        <v>4.0146816415137989</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.8423149881016823</v>
+        <v>7.8171352422052784</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.430005473106549</v>
+        <v>10.396517289080611</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11820,27 +11840,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>78735747.709053174</v>
+        <v>78482946.575295463</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0234946926922071</v>
+        <v>4.0146816415137989</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0234946926922071</v>
+        <v>4.0146816415137989</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.9329048403969447</v>
+        <v>5.9159084418595391</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.8423149881016823</v>
+        <v>7.8171352422052784</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.430005473106549</v>
+        <v>10.396517289080611</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11881,27 +11901,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53738131.901630163</v>
+        <v>53599282.939566746</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8661238541567426</v>
+        <v>2.8609577607782906</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8661238541567426</v>
+        <v>2.8609577607782906</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.1093009259256661</v>
+        <v>4.0998029941432295</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3524779976945904</v>
+        <v>5.3386482275081688</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1186090963365327</v>
+        <v>7.1002159842318759</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11942,27 +11962,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34585404.216696776</v>
+        <v>34515229.886751644</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.4448092734244748</v>
+        <v>3.4378197011460445</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.4448092734244748</v>
+        <v>3.4378197011460445</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.0211028831613049</v>
+        <v>5.0078557180013838</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>6.5973964928981363</v>
+        <v>6.5778917348567241</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>8.7743072847215409</v>
+        <v>8.7483666366562431</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{939307DD-41F9-46D8-8F40-6B247D8603EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0627AE3B-E615-4D92-955D-DC5B1E0AE133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3462,19 +3462,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.17631705606415463</v>
+        <v>0.18293206602014522</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.50883445709789588</v>
+        <v>0.52792475428632513</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.23666718934785855</v>
+        <v>0.24554639734247682</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11833359467392927</v>
+        <v>0.12277319867123841</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>9.02</v>
+        <v>8.68</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>90559.54082604</v>
+        <v>87145.988289360001</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4297,7 +4297,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.662883194377851</v>
+        <v>12.204980431758141</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9166797336964637E-2</v>
+        <v>6.1386599335619206E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4542,20 +4542,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0146816415137989</v>
+        <v>4.0422422191834189</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>11.955994882442702</v>
+        <v>12.101773513560479</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9159084418595391</v>
+        <v>5.977345629433267</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.396517289080611</v>
+        <v>10.523281316139547</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9707,7 +9707,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11578,17 +11578,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16236343956303451</v>
+        <v>0.16845494195749119</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.711398674867031E-2</v>
+        <v>4.8881595046845742E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8970956665223482E-2</v>
+        <v>8.1933765120830171E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11629,17 +11629,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17631705606415463</v>
+        <v>0.18293206602014522</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5500078402178781E-2</v>
+        <v>3.6831959601371526E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9166797336964637E-2</v>
+        <v>6.1386599335619206E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11699,14 +11699,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0749587751830756</v>
+        <v>8.130392941170518</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.723051155069136</v>
+        <v>15.914761246694104</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11727,14 +11727,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7544079552753189</v>
+        <v>5.782299011045736</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.737928483932688</v>
+        <v>10.833665401350556</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11777,21 +11777,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78482946.575295463</v>
+        <v>79439883.796357438</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0146816415137989</v>
+        <v>4.0422422191834189</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.8171352422052784</v>
+        <v>7.912449039683116</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.396517289080611</v>
+        <v>10.523281316139547</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11818,7 +11818,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11840,27 +11840,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>78482946.575295463</v>
+        <v>79439883.796357438</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0146816415137989</v>
+        <v>4.0422422191834189</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0146816415137989</v>
+        <v>4.0422422191834189</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.9159084418595391</v>
+        <v>5.977345629433267</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.8171352422052784</v>
+        <v>7.9124490396831151</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.396517289080611</v>
+        <v>10.523281316139547</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11901,27 +11901,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53599282.939566746</v>
+        <v>54077161.902173042</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8609577607782906</v>
+        <v>2.8748245448302492</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8609577607782906</v>
+        <v>2.8748245448302492</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.0998029941432295</v>
+        <v>4.1305354701938777</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3386482275081688</v>
+        <v>5.3862463955575066</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1002159842318759</v>
+        <v>7.1635198879921367</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11962,27 +11962,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34515229.886751644</v>
+        <v>34723192.351005554</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.4378197011460445</v>
+        <v>3.4585333820068342</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.4378197011460445</v>
+        <v>3.4585333820068342</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.0078557180013838</v>
+        <v>5.0539405498135723</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>6.5778917348567241</v>
+        <v>6.6493477176203104</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>8.7483666366562431</v>
+        <v>8.8434006020658416</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF03CE94-CE76-4338-AA5D-F32419410DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B594B457-A13D-4858-B122-E6464D6BE6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3675,19 +3675,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.18241835335547504</v>
+        <v>0.18177937394982083</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.52644222780439109</v>
+        <v>0.52459819327800639</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.24485685014157724</v>
+        <v>0.24399915966418903</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12242842507078862</v>
+        <v>0.12199957983209452</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4420,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.69</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>87246.386893379997</v>
+        <v>87547.58270544</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4510,7 +4510,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4641,7 +4641,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.23935116751206</v>
+        <v>12.282374163821693</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1214212535394309E-2</v>
+        <v>6.0999789916047258E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.8492358231079011</v>
+        <v>4.0293602049398363</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>12.170513116515584</v>
+        <v>12.052138278165375</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.8840227429469962</v>
+        <v>5.9546782291222318</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.583054883926597</v>
+        <v>10.480120241882934</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11810,17 +11810,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16798188417712198</v>
+        <v>0.16739347318372261</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8744324993589591E-2</v>
+        <v>4.8573582196932912E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1703677451006068E-2</v>
+        <v>8.1417483840017416E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11861,17 +11861,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.18241835335547504</v>
+        <v>0.18177937394982083</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6728527521236586E-2</v>
+        <v>3.6599873949628353E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1214212535394309E-2</v>
+        <v>6.0999789916047258E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11924,21 +11924,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3750815324692267</v>
+        <v>8.1044826092322104</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.564394645889795</v>
+        <v>15.849487101557328</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11959,14 +11959,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.3682478477909106</v>
+        <v>5.7658846587165664</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5961125733287993</v>
+        <v>10.795317781270198</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12009,21 +12009,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>89543603.966381058</v>
+        <v>79114062.351461485</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.8492358231079011</v>
+        <v>4.0293602049398363</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.9188096627860922</v>
+        <v>7.8799962533046273</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.583054883926597</v>
+        <v>10.480120241882934</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12073,23 +12073,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8492358231079011</v>
+        <v>4.0293602049398363</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.8492358231079011</v>
+        <v>4.0293602049398363</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>6.8840227429469962</v>
+        <v>5.9546782291222318</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>8.9188096627860922</v>
+        <v>7.8799962533046273</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.583054883926597</v>
+        <v>10.480120241882934</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12128,23 +12128,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5297100996406097</v>
+        <v>2.8666637107271971</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.5297100996406097</v>
+        <v>2.8666637107271971</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.9196549424244971</v>
+        <v>4.1169222808633457</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.3095997852083849</v>
+        <v>5.3671808509994952</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.4869678070484147</v>
+        <v>7.1381633785444141</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12183,23 +12183,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>4.1894729613742552</v>
+        <v>3.4480119578335167</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>4.1894729613742552</v>
+        <v>3.4480119578335167</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>5.9018388426857467</v>
+        <v>5.0358002549927887</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>7.6142047239972381</v>
+        <v>6.6235885521520608</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>9.0350113454875061</v>
+        <v>8.8091418102136743</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B594B457-A13D-4858-B122-E6464D6BE6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5770372-8E60-4A32-B2A4-D489247EA236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3675,19 +3676,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.18177937394982083</v>
+        <v>0.18136340284238417</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.52459819327800639</v>
+        <v>0.52339773974647774</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.24399915966418903</v>
+        <v>0.2434408091844083</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12199957983209452</v>
+        <v>0.12172040459220415</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4325,7 +4326,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4348,6 +4349,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4366,8 +4370,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4403,24 +4407,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1171.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.7200000000000006</v>
+        <v>8.74</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4430,7 +4437,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>兗礦能源</v>
       </c>
@@ -4459,11 +4466,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>87547.58270544</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>87748.379913479992</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4486,11 +4493,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4558,10 +4565,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4608,7 +4615,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4698,7 +4705,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.282374163821693</v>
+        <v>12.310544746766237</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4730,7 +4737,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0999789916047258E-2</v>
+        <v>6.0860202296102076E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4749,10 +4756,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4760,22 +4767,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0293602049398363</v>
+        <v>4.4099778202534408</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>12.052138278165375</v>
+        <v>13.540838695108254</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.9546782291222318</v>
-      </c>
-      <c r="G29" s="312">
+        <v>6.5157344041557543</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.480120241882934</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>11.774642343572395</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5757,15 +5764,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5793,7 +5801,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11810,17 +11818,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16739347318372261</v>
+        <v>0.16701042175767289</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8573582196932912E-2</v>
+        <v>4.8462429834926199E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1417483840017416E-2</v>
+        <v>8.1231173808346893E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11861,17 +11869,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.18177937394982083</v>
+        <v>0.18136340284238417</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6599873949628353E-2</v>
+        <v>3.6516121377661241E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0999789916047258E-2</v>
+        <v>6.0860202296102076E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11920,7 +11928,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11931,14 +11939,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1044826092322104</v>
+        <v>8.8700405854823376</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.849487101557328</v>
+        <v>17.340897865797064</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11959,14 +11967,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.7658846587165664</v>
+        <v>6.3113317078820046</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.795317781270198</v>
+        <v>11.813544901588457</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12009,21 +12017,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>79114062.351461485</v>
+        <v>86558565.97720404</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0293602049398363</v>
+        <v>4.4099778202534408</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.8799962533046273</v>
+        <v>8.621490988058067</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.480120241882934</v>
+        <v>11.774642343572395</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12073,23 +12081,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0293602049398363</v>
+        <v>4.4099778202534408</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0293602049398363</v>
+        <v>4.4099778202534408</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>5.9546782291222318</v>
+        <v>6.5157344041557543</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>7.8799962533046273</v>
+        <v>8.621490988058067</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.480120241882934</v>
+        <v>11.774642343572395</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12128,23 +12136,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8666637107271971</v>
+        <v>3.1378472939093554</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8666637107271971</v>
+        <v>3.1378472939093554</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.1169222808633457</v>
+        <v>4.5056334901904309</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.3671808509994952</v>
+        <v>5.8734196864715065</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.1381633785444141</v>
+        <v>8.0215146356577414</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12183,23 +12191,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.4480119578335167</v>
+        <v>3.7739125570813981</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.4480119578335167</v>
+        <v>3.7739125570813981</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>5.0358002549927887</v>
+        <v>5.5106839471730922</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>6.6235885521520608</v>
+        <v>7.2474553372647872</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>8.8091418102136743</v>
+        <v>9.8980784896150684</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5770372-8E60-4A32-B2A4-D489247EA236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32FAC4FF-64E8-49C4-85EC-81AE5936A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3676,19 +3676,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.18136340284238417</v>
+        <v>0.18177937394982083</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.52339773974647774</v>
+        <v>0.52459819327800639</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.2434408091844083</v>
+        <v>0.24399915966418903</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12172040459220415</v>
+        <v>0.12199957983209452</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4407,27 +4407,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1171.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.74</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4437,40 +4437,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>兗礦能源</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>10039860402</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45638</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>87748.379913479992</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>87547.58270544</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4493,11 +4493,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4648,7 +4648,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.310544746766237</v>
+        <v>12.282374163821693</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0860202296102076E-2</v>
+        <v>6.0999789916047258E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4756,10 +4756,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4767,22 +4767,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4099778202534408</v>
+        <v>4.8391103896593188</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>13.540838695108254</v>
+        <v>13.541010954723721</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.5157344041557543</v>
-      </c>
-      <c r="G29" s="313">
+        <v>7.0076351421637391</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.774642343572395</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>11.774792134542366</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5765,15 +5765,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11146,7 +11146,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11157,11 +11157,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11173,11 +11173,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11818,17 +11818,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16701042175767289</v>
+        <v>0.16739347318372261</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8462429834926199E-2</v>
+        <v>4.8573582196932912E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1231173808346893E-2</v>
+        <v>8.1417483840017416E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11869,17 +11869,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.18136340284238417</v>
+        <v>0.18177937394982083</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6516121377661241E-2</v>
+        <v>3.6599873949628353E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0860202296102076E-2</v>
+        <v>6.0999789916047258E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11932,21 +11932,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8700405854823376</v>
+        <v>8.4636343159540814</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.340897865797064</v>
+        <v>16.049161006773947</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11967,14 +11967,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3113317078820046</v>
+        <v>6.0909538189834782</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.813544901588457</v>
+        <v>11.141678980858106</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12017,21 +12017,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>86558565.97720404</v>
+        <v>92127364.36889933</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.4099778202534408</v>
+        <v>4.8391103896593188</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.621490988058067</v>
+        <v>9.1761598946681584</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.774642343572395</v>
+        <v>11.774792134542366</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12081,23 +12081,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.4099778202534408</v>
+        <v>4.8391103896593188</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4099778202534408</v>
+        <v>4.8391103896593188</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>6.5157344041557543</v>
+        <v>7.0076351421637391</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>8.621490988058067</v>
+        <v>9.1761598946681584</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.774642343572395</v>
+        <v>11.774792134542366</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12136,23 +12136,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.1378472939093554</v>
+        <v>3.482522614761085</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1378472939093554</v>
+        <v>3.482522614761085</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.5056334901904309</v>
+        <v>4.9264068667111935</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.8734196864715065</v>
+        <v>6.3702911186613029</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.0215146356577414</v>
+        <v>8.1743185188329566</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12191,23 +12191,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.7739125570813981</v>
+        <v>4.1608165022102019</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.7739125570813981</v>
+        <v>4.1608165022102019</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>5.5106839471730922</v>
+        <v>5.9670210044374663</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>7.2474553372647872</v>
+        <v>7.7732255066647307</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>9.8980784896150684</v>
+        <v>9.9745553266876605</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECA4696-4DBD-4C5A-9FFC-4D42A14960FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85ECC4B7-3C35-4B17-B824-5C12914C9D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3712,19 +3712,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.18177368407584837</v>
+        <v>0.18022357080921977</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.524581772836341</v>
+        <v>0.52010829159707728</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.24399152224946091</v>
+        <v>0.24191083330096616</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12199576112473046</v>
+        <v>0.12095541665048308</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4448,27 +4448,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1171.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.7200000000000006</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4478,7 +4478,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>兗礦能源</v>
       </c>
@@ -4507,11 +4507,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>87547.58270544</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>88350.771537600012</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4534,11 +4534,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4558,7 +4558,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.282758626300021</v>
+        <v>12.388403337543584</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0997880562365228E-2</v>
+        <v>6.047770832524154E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4797,10 +4797,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4808,22 +4808,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.8792552791827317</v>
+        <v>4.8743190278634803</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>13.678598078781858</v>
+        <v>13.651259020156337</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>7.0657531706788017</v>
-      </c>
-      <c r="G29" s="313">
+        <v>7.0540389281017113</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.894433111984226</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>11.87066001752725</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5806,15 +5806,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11961,17 +11961,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16738823360265501</v>
+        <v>0.16596079528613428</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8572061795827522E-2</v>
+        <v>4.815785333787604E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1414935392346274E-2</v>
+        <v>8.0720652432219195E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12012,17 +12012,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.18177368407584837</v>
+        <v>0.18022357080921977</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6598728337419131E-2</v>
+        <v>3.6286624995144921E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0997880562365228E-2</v>
+        <v>6.047770832524154E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12082,14 +12082,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.5338479786360892</v>
+        <v>8.5252144442271476</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.182244934312987</v>
+        <v>16.149901901759232</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12110,14 +12110,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.1414923763450586</v>
+        <v>6.1375857082345204</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.234093786975123</v>
+        <v>11.218451726782272</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12160,21 +12160,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>92891309.068491951</v>
+        <v>92705649.622268096</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.8792552791827317</v>
+        <v>4.8743190278634803</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.2522510621748726</v>
+        <v>9.2337588283399423</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.894433111984226</v>
+        <v>11.87066001752725</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12224,23 +12224,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8792552791827317</v>
+        <v>4.8743190278634803</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.8792552791827317</v>
+        <v>4.8743190278634803</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>7.0657531706788017</v>
+        <v>7.0540389281017113</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.2522510621748726</v>
+        <v>9.2337588283399423</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.894433111984226</v>
+        <v>11.87066001752725</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12279,23 +12279,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5114181989601585</v>
+        <v>3.5091845487885034</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.5114181989601585</v>
+        <v>3.5091845487885034</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>4.9672738914798575</v>
+        <v>4.9616853670525183</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.4231295839995575</v>
+        <v>6.4141861853165336</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.2573943025418739</v>
+        <v>8.2458969213408899</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12334,23 +12334,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>4.1953367390714451</v>
+        <v>4.191751788325992</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.1953367390714451</v>
+        <v>4.191751788325992</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>6.0165135310793296</v>
+        <v>6.0078621475771143</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>7.837690323087215</v>
+        <v>7.8239725068282375</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>10.07591370726305</v>
+        <v>10.05827846943407</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1171.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1171.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85ECC4B7-3C35-4B17-B824-5C12914C9D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1559DDE-DEAB-4673-AD3E-9B75F9E45858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3712,19 +3712,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.18022357080921977</v>
+        <v>0.20070482908973433</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.52010829159707728</v>
+        <v>0.57921527858111255</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.24191083330096616</v>
+        <v>0.26940245515400585</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12095541665048308</v>
+        <v>0.13470122757700292</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4448,27 +4448,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1171.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.8000000000000007</v>
+        <v>7.88</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4478,40 +4478,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>兗礦能源</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>10039860402</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45638</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>88350.771537600012</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>79114.09996775999</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4534,11 +4534,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4558,7 +4558,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.388403337543584</v>
+        <v>11.124208103227739</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.047770832524154E-2</v>
+        <v>6.7350613788501462E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4797,10 +4797,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4808,22 +4808,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.8743190278634803</v>
+        <v>4.9630722716092377</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>13.651259020156337</v>
+        <v>14.081398541026443</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>7.0540389281017113</v>
-      </c>
-      <c r="G29" s="314">
+        <v>7.2438894799757669</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>11.87066001752725</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>12.244694383501256</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5806,15 +5806,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11289,7 +11289,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11300,11 +11300,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11316,11 +11316,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11961,17 +11961,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16596079528613428</v>
+        <v>0.18482118018158789</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.815785333787604E-2</v>
+        <v>5.3630685931412257E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0720652432219195E-2</v>
+        <v>8.9894039262879796E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12012,17 +12012,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.18022357080921977</v>
+        <v>0.20070482908973433</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6286624995144921E-2</v>
+        <v>4.041036827310087E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.047770832524154E-2</v>
+        <v>6.7350613788501462E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12082,14 +12082,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.5252144442271476</v>
+        <v>8.6804444222462518</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.149901901759232</v>
+        <v>16.65877152732747</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12110,14 +12110,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.1375857082345204</v>
+        <v>6.2185117829020236</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.218451726782272</v>
+        <v>11.48008071982186</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12160,21 +12160,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>92705649.622268096</v>
+        <v>95626725.520952359</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.8743190278634803</v>
+        <v>4.9630722716092377</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.2337588283399423</v>
+        <v>9.5247066883422953</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.87066001752725</v>
+        <v>12.244694383501256</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12224,23 +12224,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8743190278634803</v>
+        <v>4.9630722716092377</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.8743190278634803</v>
+        <v>4.9630722716092377</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>7.0540389281017113</v>
+        <v>7.2438894799757669</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.2337588283399423</v>
+        <v>9.5247066883422953</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.87066001752725</v>
+        <v>12.244694383501256</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12279,23 +12279,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5091845487885034</v>
+        <v>3.5554542946327525</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.5091845487885034</v>
+        <v>3.5554542946327525</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>4.9616853670525183</v>
+        <v>5.059613852930454</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.4141861853165336</v>
+        <v>6.5637734112281549</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.2458969213408899</v>
+        <v>8.4382020415820627</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12334,23 +12334,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>4.191751788325992</v>
+        <v>4.2592632831209949</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.191751788325992</v>
+        <v>4.2592632831209949</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>6.0078621475771143</v>
+        <v>6.1517516664531104</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>7.8239725068282375</v>
+        <v>8.0442400497852251</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>10.05827846943407</v>
+        <v>10.34144821254166</v>
       </c>
       <c r="K106" s="75"/>
     </row>
